--- a/biology/Biochimie/Oxotransférase_à_molybdène/Oxotransférase_à_molybdène.xlsx
+++ b/biology/Biochimie/Oxotransférase_à_molybdène/Oxotransférase_à_molybdène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxotransf%C3%A9rase_%C3%A0_molybd%C3%A8ne</t>
+          <t>Oxotransférase_à_molybdène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oxotransférases à molybdène sont la superfamille de protéines des oxydoréductases métalloprotéiques à cofacteur molybdène qui favorisent les transferts d'atomes d'oxygène[1].
-La DMSO réductase[2], la xanthine oxydase[3], nitrite réductase[4] et la sulfite oxydase[5] sont des oxotransférases à molybdène.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oxotransférases à molybdène sont la superfamille de protéines des oxydoréductases métalloprotéiques à cofacteur molybdène qui favorisent les transferts d'atomes d'oxygène.
+La DMSO réductase, la xanthine oxydase, nitrite réductase et la sulfite oxydase sont des oxotransférases à molybdène.
 </t>
         </is>
       </c>
